--- a/va_facility_data_2025-02-20/Lyons VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Lyons%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lyons VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Lyons%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R264293ef4b21479ab1f7e60e7becf2b8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Raacc48390c7e4aeda9cd8a8ca0caff86"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R46dd4c8ce8684da98bad9afd47c9ed4f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdb9aa376d66d4674b3e3a243c9307b94"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Red66321447f64459ad2c084f67b74c49"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2c10c3c7524746719b61a28ca273c508"/>
   </x:sheets>
 </x:workbook>
 </file>
